--- a/fhir/ig/r2bo/0.1.1-ballot/observations-summary.xlsx
+++ b/fhir/ig/r2bo/0.1.1-ballot/observations-summary.xlsx
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
